--- a/Excels/Prefabs.xlsx
+++ b/Excels/Prefabs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>唯一标识</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>client</t>
+  </si>
+  <si>
+    <t>Castle</t>
   </si>
 </sst>
 </file>
@@ -986,13 +989,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
@@ -1030,6 +1033,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
